--- a/src/main/resources/other/总结.xlsx
+++ b/src/main/resources/other/总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="228">
   <si>
     <t>场景</t>
   </si>
@@ -679,6 +679,27 @@
   </si>
   <si>
     <t>{"sql":"select te.trans_id value,cl.item_name name from trans_entry te,code_library cl where te.trans_id=cl.item_no and cl.code_no='TransId'","sqlParam":{"te.model_id":"#modelId"},"sqlOrder":"order by te.trans_id","sqlGroup":"group by te.trans_id,cl.item_name","specialValue":{"all":"所有"}}</t>
+  </si>
+  <si>
+    <t>web_menu_group</t>
+  </si>
+  <si>
+    <t>web_menu</t>
+  </si>
+  <si>
+    <t>web_menu_page</t>
+  </si>
+  <si>
+    <t>entry_event</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>web_page_element</t>
+  </si>
+  <si>
+    <t>request_bean</t>
   </si>
 </sst>
 </file>
@@ -686,9 +707,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -715,7 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,13 +751,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -744,7 +758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,8 +772,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +818,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -790,67 +866,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -867,7 +888,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +984,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,121 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,25 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,21 +1117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1126,20 +1132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,6 +1161,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1166,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,133 +1199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,6 +1410,536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="981075"/>
+          <a:ext cx="1552575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>menu_group</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="1800225"/>
+          <a:ext cx="1552575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>menu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14811375" y="1790700"/>
+          <a:ext cx="1552575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>menu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1069975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12423775" y="2813050"/>
+          <a:ext cx="1552575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web_element</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1651,8 +2202,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2211,8 +2762,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:H202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119:E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6270,24 +6821,222 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
